--- a/Results.xlsx
+++ b/Results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -4452,8 +4452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K191"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:K3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7453,8 +7453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="B2:G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="test3_NN" sheetId="4" r:id="rId4"/>
     <sheet name="test4_NN" sheetId="5" r:id="rId5"/>
     <sheet name="test5_NN" sheetId="6" r:id="rId6"/>
+    <sheet name="BEST" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1301" uniqueCount="67">
   <si>
     <t>sgd</t>
   </si>
@@ -4452,7 +4453,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K191"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
@@ -9685,4 +9686,51 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:I2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>15</v>
+      </c>
+      <c r="C2">
+        <v>358.60920190799999</v>
+      </c>
+      <c r="D2">
+        <v>0.73042988777200002</v>
+      </c>
+      <c r="E2" s="3">
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Results.xlsx
+++ b/Results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1301" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="67">
   <si>
     <t>sgd</t>
   </si>
@@ -602,8 +602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C16"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -750,8 +750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C14"/>
+    <sheetView topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1898,8 +1898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D92"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3204,8 +3204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection sqref="A1:F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4453,8 +4453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K191"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView topLeftCell="A80" workbookViewId="0">
+      <selection sqref="A1:G96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7455,7 +7455,7 @@
   <dimension ref="A1:K96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9690,17 +9690,47 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" t="s">
+        <v>63</v>
+      </c>
+    </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>5</v>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -603,7 +603,7 @@
   <dimension ref="A2:C16"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C16"/>
+      <selection activeCell="A3" sqref="A3:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1898,7 +1898,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D92"/>
   <sheetViews>
-    <sheetView topLeftCell="A71" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
       <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
@@ -9690,10 +9690,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9760,6 +9760,40 @@
         <v>38</v>
       </c>
     </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>1589.21</v>
+      </c>
+      <c r="D3">
+        <v>0.73619999999999997</v>
+      </c>
+      <c r="E3" s="3">
+        <v>4.3E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>15</v>
+      </c>
+      <c r="C4">
+        <v>1073.42</v>
+      </c>
+      <c r="D4">
+        <v>0.74150000000000005</v>
+      </c>
+      <c r="E4" s="3">
+        <v>4.1999999999999997E-3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
